--- a/prestudy.xlsx
+++ b/prestudy.xlsx
@@ -49,7 +49,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">语文预习</t>
+      <t xml:space="preserve">语文预习
+朗读</t>
     </r>
     <r>
       <rPr>
@@ -58,7 +59,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t xml:space="preserve">/</t>
     </r>
     <r>
       <rPr>
@@ -67,26 +68,30 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">朗读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">描红）</t>
-    </r>
+      <t xml:space="preserve">描红</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">语文练习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">语文预习
+Aha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西概念
+背书单词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新概念
+练习题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数学预习
+轻课</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数学练习</t>
   </si>
   <si>
     <t xml:space="preserve">牛爸</t>
@@ -95,43 +100,25 @@
     <t xml:space="preserve">数学童话</t>
   </si>
   <si>
-    <t xml:space="preserve">数学预习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西概念背书单词</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新概念做题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">语文预习</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAZ</t>
   </si>
   <si>
+    <t xml:space="preserve">民国课本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古诗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音乐</t>
+  </si>
+  <si>
     <t xml:space="preserve">阅读</t>
-  </si>
-  <si>
-    <t xml:space="preserve">语文练习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数学练习</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画画</t>
-  </si>
-  <si>
-    <t xml:space="preserve">音乐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">民国课本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古诗</t>
   </si>
 </sst>
 </file>
@@ -217,8 +204,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -241,29 +228,35 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="32" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -288,7 +281,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -318,7 +311,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <f aca="false">SUM(B2:R2)</f>
+        <f aca="false">SUM(B2:AE2)</f>
         <v>550</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -328,49 +321,49 @@
         <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="H2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="M2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R2" s="0" t="n">
         <v>40</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
